--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Anul3\Semestrul2\VVSS\Laborator\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="156" windowWidth="14160" windowHeight="8268" tabRatio="650"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="14160" windowHeight="8265" tabRatio="650" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="7" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="Coding Phase Defects" sheetId="5" r:id="rId3"/>
     <sheet name="DynamicCodeAnalysis" sheetId="8" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="101">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -115,20 +120,262 @@
     <t>Numele si prenumele</t>
   </si>
   <si>
-    <t>Effort to perform dynamic code analysis (hours):</t>
+    <t>R01</t>
+  </si>
+  <si>
+    <t>R04</t>
+  </si>
+  <si>
+    <t>R05</t>
+  </si>
+  <si>
+    <t>R06</t>
+  </si>
+  <si>
+    <t>R07</t>
+  </si>
+  <si>
+    <t>F01</t>
+  </si>
+  <si>
+    <t>Specificarea detaliata a starii unui task(activ/inactiv)</t>
+  </si>
+  <si>
+    <t>F02</t>
+  </si>
+  <si>
+    <t>F03</t>
+  </si>
+  <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F05</t>
+  </si>
+  <si>
+    <t>Informatii incomplete despre modul de afisare al task-urilor</t>
+  </si>
+  <si>
+    <t>Ce inseamna planificat (activ/inactiv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ce vrea sa se afiseze despre un task </t>
+  </si>
+  <si>
+    <t>Cum este identificat task-ul?</t>
+  </si>
+  <si>
+    <t>Cum este afisat task-ul?</t>
+  </si>
+  <si>
+    <t>Cum este ales task-ul?</t>
+  </si>
+  <si>
+    <t>Ce detalii pot fi modificate?</t>
+  </si>
+  <si>
+    <t>Cum se face incarcarea task-urilor?(de catre utilizator sau de catre aplicatie, mai multe detalii)</t>
+  </si>
+  <si>
+    <t>Nu e precizat tipul aplicatiei</t>
+  </si>
+  <si>
+    <t>Harjoc Sergiu</t>
+  </si>
+  <si>
+    <t>Herteg Alexandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilie Ionut </t>
+  </si>
+  <si>
+    <t>1h 30m</t>
+  </si>
+  <si>
+    <t>Reprezentarea task-ului in fisier nu este specificata</t>
+  </si>
+  <si>
+    <t>Ilie Ionut</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Diagrama este foarte intortocheata si greu de citit</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>C01</t>
+  </si>
+  <si>
+    <t>C04</t>
+  </si>
+  <si>
+    <t>C06</t>
+  </si>
+  <si>
+    <t>La adaugare si editare nu se face enabled la endDate</t>
+  </si>
+  <si>
+    <t>In tabel ar trebui afisata si data de sfarsit</t>
+  </si>
+  <si>
+    <t>La filtrare ar trebui sa se tina cont si de task-urile care nu sunt repetitive</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>Reimplementarea unor clase predefinite nu este necesara: ArrayTaskList,  TaskList, LinkedTask + Iteratorii</t>
+  </si>
+  <si>
+    <t>Separarea logicii pentru New si Edit in 2 Controllere diferite</t>
+  </si>
+  <si>
+    <t>Inconsistenta la citirea si scrierea din fisier</t>
+  </si>
+  <si>
+    <t>Salvarea unui task</t>
+  </si>
+  <si>
+    <t>Instance methods should not write to "static" fields</t>
+  </si>
+  <si>
+    <t>Controller, 34, 35, 37</t>
+  </si>
+  <si>
+    <t>public Stage editNewStage;public Stage infoStage;public static TableView mainTable;</t>
+  </si>
+  <si>
+    <t>public Stage editNewStage; public Stage infoStage; public TableView mainTable</t>
+  </si>
+  <si>
+    <t>NewEditController,111</t>
+  </si>
+  <si>
+    <t>Standard outputs should not be used directly to log anything</t>
+  </si>
+  <si>
+    <t>System.out.println(result);</t>
+  </si>
+  <si>
+    <t>log.info(result);</t>
+  </si>
+  <si>
+    <t>Notificator, 13&amp;14</t>
+  </si>
+  <si>
+    <t>Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <t>private static final int millisecondsInSec = 1000;
+    private static final int secondsInMin = 60;</t>
+  </si>
+  <si>
+    <t>private static final long MILLISECONDS_IN_SEC = 1000;
+    private static final long SECONDS_IN_MIN = 60;</t>
+  </si>
+  <si>
+    <t>Notificator, 60</t>
+  </si>
+  <si>
+    <t>Lambdas containing only one statement should not nest this statement in a block</t>
+  </si>
+  <si>
+    <t>Platform.runLater(() -&gt; {
+            Notifications.create().title("Task reminder").text("It's time for " + task.getTitle()).showInformation();
+        });</t>
+  </si>
+  <si>
+    <t>Platform.runLater(() -&gt; Notifications.create().title("Task reminder").text("It's time for " + task.getTitle()).showInformation());</t>
+  </si>
+  <si>
+    <t>Non-thread-safe fields should not be static</t>
+  </si>
+  <si>
+    <t>Task, 19</t>
+  </si>
+  <si>
+    <t>private static final SimpleDateFormat sdf = new SimpleDateFormat("yyyy-MM-dd HH:mm");</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> private final SimpleDateFormat sdf = new SimpleDateFormat("yyyy-MM-dd HH:mm");
+    public SimpleDateFormat getDateFormat(){
+        return sdf;
+    }</t>
+  </si>
+  <si>
+    <t>Boolean checks should not be inverted</t>
+  </si>
+  <si>
+    <t>Task, 77</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return !(this.interval == 0);
+</t>
+  </si>
+  <si>
+    <t>return this.interval != 0;</t>
+  </si>
+  <si>
+    <t>TasksOperations 17, 18, 24</t>
+  </si>
+  <si>
+    <t>System.out.println(start);
+        System.out.println(end);
+                System.out.println(t.getTitle());</t>
+  </si>
+  <si>
+    <t>log.info(start);        log.info(end)                log.info(t.getTitle());</t>
+  </si>
+  <si>
+    <t>Effort to perform dynamic code analysis (hours): 45 min</t>
+  </si>
+  <si>
+    <t>1h 30 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,6 +440,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -220,7 +473,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -289,79 +542,190 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -369,14 +733,214 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B9:E26" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B9:E26"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Crt. No." dataDxfId="3">
+      <calculatedColumnFormula>B9+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="Checked Item" dataDxfId="2"/>
+    <tableColumn id="3" name="Doc. page/line" dataDxfId="1"/>
+    <tableColumn id="4" name="Comments/ improvements" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,7 +986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,7 +1021,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -669,266 +1233,363 @@
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
     <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.41796875" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.89453125" style="6"/>
+    <col min="10" max="10" width="14.42578125" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="40"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="42"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="10" t="s">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="25">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" s="3">
-        <f>B10+1</f>
+      <c r="C10" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="26"/>
+      <c r="E10" s="31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B25" si="0">B11+1</f>
+      <c r="C11" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="20">
+        <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="3">
-        <f t="shared" si="0"/>
+      <c r="C12" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="20">
+        <f t="shared" ref="B13:B26" si="0">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="3">
+      <c r="C13" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="3">
+      <c r="C14" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="3">
+      <c r="C15" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="3">
+      <c r="C16" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="20">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="3">
+      <c r="C17" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="3">
+      <c r="C18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="20">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="3">
+      <c r="C19" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="3">
+      <c r="C20" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="20">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="3">
+      <c r="C21" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="3">
+      <c r="C22" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="20">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="3">
+      <c r="C23" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="3">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="34"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="20">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E26" s="11"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C27" s="12" t="s">
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="34"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="35"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="1"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -941,6 +1602,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -951,98 +1615,110 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.3125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="22.05078125" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="4" width="16.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="22" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="43"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="28"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="45"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1056,24 +1732,32 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B26" si="0">B11+1</f>
         <v>3</v>
@@ -1082,7 +1766,7 @@
       <c r="D12" s="1"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1091,7 +1775,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1100,7 +1784,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1109,7 +1793,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1118,7 +1802,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1127,7 +1811,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1136,7 +1820,7 @@
       <c r="D18" s="1"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1145,7 +1829,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1154,7 +1838,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1163,7 +1847,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1172,7 +1856,7 @@
       <c r="D22" s="1"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1181,7 +1865,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1190,7 +1874,7 @@
       <c r="D24" s="1"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1199,7 +1883,7 @@
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1208,15 +1892,17 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E27" s="11"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1239,99 +1925,111 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.41796875" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="41.42578125" style="6" customWidth="1"/>
+    <col min="6" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="29"/>
-      <c r="H4" s="18" t="s">
+      <c r="E4" s="46"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C5" s="17" t="s">
+      <c r="I4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="H5" s="18" t="s">
+      <c r="E5" s="48"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1345,60 +2043,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1407,7 +2129,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1416,7 +2138,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1425,7 +2147,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1434,7 +2156,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1443,7 +2165,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1452,7 +2174,7 @@
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1461,7 +2183,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1470,7 +2192,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1479,7 +2201,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1488,7 +2210,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1497,7 +2219,7 @@
       <c r="D26" s="1"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1506,7 +2228,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1515,7 +2237,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1524,7 +2246,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1533,15 +2255,17 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="13"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1564,89 +2288,101 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.89453125" style="6"/>
-    <col min="2" max="2" width="12.3125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.3125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="6"/>
+    <col min="2" max="2" width="12.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="6" customWidth="1"/>
     <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="23.9453125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.62890625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.89453125" style="6"/>
-    <col min="9" max="9" width="26.734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.89453125" style="6"/>
+    <col min="5" max="5" width="24" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="6" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="6"/>
+    <col min="9" max="9" width="26.7109375" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="21" t="s">
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
       <c r="H2" s="3"/>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="H3" s="18" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" s="17" t="s">
+      <c r="I3" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="16">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="H4" s="18" t="s">
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="H4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="H5" s="18" t="s">
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="H5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>4</v>
       </c>
@@ -1663,76 +2399,132 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <f t="shared" ref="B12:B30" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1742,7 +2534,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1752,7 +2544,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1762,7 +2554,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1772,7 +2564,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1782,7 +2574,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1792,7 +2584,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1802,7 +2594,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1812,7 +2604,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="3">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1822,7 +2614,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1832,7 +2624,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="3">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1842,7 +2634,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="3">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1852,7 +2644,7 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +2654,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1872,16 +2664,16 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="19"/>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
